--- a/DataSheet/data2.xlsx
+++ b/DataSheet/data2.xlsx
@@ -16,15 +16,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
   <si>
     <t>kkk</t>
   </si>
+  <si>
+    <t>ss</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -357,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -365,11 +369,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
+    <row r="3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
